--- a/codelist_generator/codelijst.xlsx
+++ b/codelist_generator/codelijst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\5. water\DigitaleWatermeter\OSLOthema-DigitaleWatermeter\codelist_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A313444-B4EC-4142-9BEE-83B205A4C40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A7166E-B372-4761-987B-A449CE6207A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="3" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="10" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Nutsvoorzienningnetwerktype" sheetId="17" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <sheet name="Plaatstype" sheetId="19" r:id="rId4"/>
     <sheet name="RuimtelijkeRelatietype" sheetId="21" r:id="rId5"/>
     <sheet name="Kenmerktype" sheetId="16" r:id="rId6"/>
-    <sheet name="Observatieproceduretype meting" sheetId="13" r:id="rId7"/>
-    <sheet name="Observatieproceduretype schatti" sheetId="22" r:id="rId8"/>
-    <sheet name="SysteemType Watermeter" sheetId="14" r:id="rId9"/>
-    <sheet name="SysteemType MLModel" sheetId="23" r:id="rId10"/>
+    <sheet name="Identificatortype" sheetId="24" r:id="rId7"/>
+    <sheet name="Observatieproceduretype meting" sheetId="13" r:id="rId8"/>
+    <sheet name="Observatieproceduretype schatti" sheetId="22" r:id="rId9"/>
+    <sheet name="SysteemType Watermeter" sheetId="14" r:id="rId10"/>
+    <sheet name="MeterType" sheetId="25" r:id="rId11"/>
+    <sheet name="SysteemType MLModel" sheetId="23" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="123">
   <si>
     <t>Klasse</t>
   </si>
@@ -164,54 +166,6 @@
     <t>Codelijst van Plaatstype</t>
   </si>
   <si>
-    <t>Gemeente</t>
-  </si>
-  <si>
-    <t>Arrondissement</t>
-  </si>
-  <si>
-    <t>Provincie</t>
-  </si>
-  <si>
-    <t>Een provincie is een deelgebied van een land met vaak een eigen regionaal bestuur. Het gaat veelal om een bestuurs- of beheerslaag tussen het nationale en gemeentelijke bestuur, maar hier zijn uitzonderingen op.</t>
-  </si>
-  <si>
-    <t>Gewest</t>
-  </si>
-  <si>
-    <t>Gemeenschap</t>
-  </si>
-  <si>
-    <t>Deelgemeente</t>
-  </si>
-  <si>
-    <t>Land</t>
-  </si>
-  <si>
-    <t>Postzone</t>
-  </si>
-  <si>
-    <t>Politiezone</t>
-  </si>
-  <si>
-    <t>Hulpverleningszone</t>
-  </si>
-  <si>
-    <t>Straat</t>
-  </si>
-  <si>
-    <t>Bevoorradingsgebied</t>
-  </si>
-  <si>
-    <t>Verbruikszone</t>
-  </si>
-  <si>
-    <t>Wegsegment</t>
-  </si>
-  <si>
-    <t>Een wegsegment is dat deel van de wegbaan (Wbn) dat niet als kruispuntzone gekarteerd wordt. Tussen twee kruispuntzones wordt één wegsegment opgenomen.</t>
-  </si>
-  <si>
     <t>RuimtelijkeRelatietype</t>
   </si>
   <si>
@@ -260,21 +214,6 @@
     <t>Codelijst van Kenmerktype</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>meterstand op tijdstip fenomeentijd</t>
-  </si>
-  <si>
-    <t>verbruiktVolume</t>
-  </si>
-  <si>
-    <t>watervolume verbruikt in de periode fenomeentijd</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
     <t>Observatieproceduretype</t>
   </si>
   <si>
@@ -311,9 +250,6 @@
     <t>Codelijst van SysteemType</t>
   </si>
   <si>
-    <t>Type Sensor</t>
-  </si>
-  <si>
     <t>DWM_Nutsvoorzienningnetwerktype</t>
   </si>
   <si>
@@ -356,7 +292,130 @@
     <t>DWM_SysteemType</t>
   </si>
   <si>
-    <t>Een arrondissement is een onderdeel van het grondgebied van de staat, dat wordt opgedeeld om administratieve of bestuurlijke redenen.</t>
+    <t>gemeente</t>
+  </si>
+  <si>
+    <t>arrondissement</t>
+  </si>
+  <si>
+    <t>provincie</t>
+  </si>
+  <si>
+    <t>gewest</t>
+  </si>
+  <si>
+    <t>gemeenschap</t>
+  </si>
+  <si>
+    <t>deelgemeente</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>postzone</t>
+  </si>
+  <si>
+    <t>politiezone</t>
+  </si>
+  <si>
+    <t>hulpverleningszone</t>
+  </si>
+  <si>
+    <t>straat</t>
+  </si>
+  <si>
+    <t>bevoorradingsgebied</t>
+  </si>
+  <si>
+    <t>verbruikszone</t>
+  </si>
+  <si>
+    <t>wegsegment</t>
+  </si>
+  <si>
+    <t>Plaats van het type gemeente.</t>
+  </si>
+  <si>
+    <t>Plaats van het type arrondissement.</t>
+  </si>
+  <si>
+    <t>Plaats van het type provincie.</t>
+  </si>
+  <si>
+    <t>Plaats van het type gewest.</t>
+  </si>
+  <si>
+    <t>Plaats van het type gemeenschap.</t>
+  </si>
+  <si>
+    <t>Plaats van het type deelgemeente.</t>
+  </si>
+  <si>
+    <t>Plaats van het type land.</t>
+  </si>
+  <si>
+    <t>Plaats van het type postzone.</t>
+  </si>
+  <si>
+    <t>Plaats van het type politiezone.</t>
+  </si>
+  <si>
+    <t>Plaats van het type hulpverleningszone.</t>
+  </si>
+  <si>
+    <t>Plaats van het type straat.</t>
+  </si>
+  <si>
+    <t>Plaats van het type bevoorradingsgebied.</t>
+  </si>
+  <si>
+    <t>Plaats van het type verbruikzone.</t>
+  </si>
+  <si>
+    <t>Plaats van het type wegsegment.</t>
+  </si>
+  <si>
+    <t>drinkbaarwaterverbruiksvolume</t>
+  </si>
+  <si>
+    <t>Totale volume van drinkbaar water dat wordt verbruikt binnen een bepaalde periode.</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>Reeks cijfers en/of letters die wordt gebruikt om een specifiek geografisch gebied te identificeren voor het efficiënt sorteren en bezorgen van post.</t>
+  </si>
+  <si>
+    <t>DWM_Identificatortype</t>
+  </si>
+  <si>
+    <t>Codelijst van identificatortype</t>
+  </si>
+  <si>
+    <t>Identificatortype</t>
+  </si>
+  <si>
+    <t>DWH</t>
+  </si>
+  <si>
+    <t>Voorbeeld type digitale watermeter.</t>
+  </si>
+  <si>
+    <t>DWM_MeterType</t>
+  </si>
+  <si>
+    <t>MeterType</t>
+  </si>
+  <si>
+    <t>Codelijst van MeterType</t>
+  </si>
+  <si>
+    <t>watermeter</t>
+  </si>
+  <si>
+    <t>Meetinstrument dat wordt gebruikt om het volume van het waterverbruik nauwkeurig te registreren.</t>
   </si>
 </sst>
 </file>
@@ -381,7 +440,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Gill Sans MT"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -400,11 +459,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Gill Sans MT"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333332"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -839,7 +900,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
@@ -891,7 +952,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -963,6 +1024,155 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00533DF8-B4F7-46A2-967B-F2D09271C452}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="38.125" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D726CB-F021-4A70-965E-E776D866718C}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="80.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABB103B-15AC-4345-95FA-25E26ECA283B}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -970,7 +1180,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -1000,14 +1210,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1062,7 +1272,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -1148,7 +1358,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>26</v>
@@ -1169,7 +1379,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>27</v>
@@ -1186,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
@@ -1203,7 +1413,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>31</v>
@@ -1220,7 +1430,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1237,7 +1447,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
@@ -1258,8 +1468,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -1289,7 +1499,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>38</v>
@@ -1304,15 +1514,17 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="C3" s="4" t="str">
         <f>LOWER(D3)</f>
         <v>gemeente</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>7</v>
@@ -1320,17 +1532,17 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>103</v>
+        <v>82</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f t="shared" ref="C4:C16" si="0">LOWER(D4)</f>
+        <f t="shared" ref="A4:C16" si="0">LOWER(D4)</f>
         <v>arrondissement</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>7</v>
@@ -1338,17 +1550,17 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>83</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>provincie</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>7</v>
@@ -1356,15 +1568,17 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gewest</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>7</v>
@@ -1372,15 +1586,17 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gemeenschap</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>7</v>
@@ -1388,15 +1604,17 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>deelgemeente</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>7</v>
@@ -1404,15 +1622,17 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>land</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>7</v>
@@ -1420,15 +1640,17 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>postzone</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>7</v>
@@ -1436,15 +1658,17 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="C11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>politiezone</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>7</v>
@@ -1452,15 +1676,17 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="C12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>hulpverleningszone</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>7</v>
@@ -1468,15 +1694,17 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>straat</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>7</v>
@@ -1484,15 +1712,17 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>bevoorradingsgebied</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>7</v>
@@ -1500,33 +1730,35 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="C15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>verbruikszone</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34.5">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>94</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>wegsegment</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>7</v>
@@ -1578,14 +1810,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>7</v>
@@ -1593,17 +1825,17 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>LOWER(D3)</f>
         <v>disjunct</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>7</v>
@@ -1611,17 +1843,17 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" ref="C4:C8" si="0">LOWER(D4)</f>
         <v>aangrenzend</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>7</v>
@@ -1629,17 +1861,17 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>overlappend</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>7</v>
@@ -1647,17 +1879,17 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>omvat</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>7</v>
@@ -1665,17 +1897,17 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ligtbinnenin</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>7</v>
@@ -1683,17 +1915,17 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gelijk</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>7</v>
@@ -1712,13 +1944,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="45.625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="68.5" customWidth="1"/>
     <col min="4" max="4" width="23.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1741,14 +1973,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1756,37 +1988,23 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13"/>
@@ -1797,6 +2015,77 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A31A197-739D-47DC-8CE7-B927FEEB4DFA}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="90.375" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059DCB9E-BA63-4AF6-8FF2-85D7C03C20AD}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -1835,14 +2124,14 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
@@ -1881,7 +2170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88254D76-3458-47E8-8CC5-A99FC91C83C8}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -1920,14 +2209,14 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
@@ -1935,16 +2224,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
@@ -1952,16 +2241,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -1969,16 +2258,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
@@ -1990,73 +2279,6 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00533DF8-B4F7-46A2-967B-F2D09271C452}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="38.125" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="30.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2318,15 +2540,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fe43d49-4f67-4486-9d33-01c03a937144">
@@ -2335,6 +2548,15 @@
     <TaxCatchAll xmlns="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2358,14 +2580,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767BCD5D-D9CA-4F41-921C-9506A605E799}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9183F7A-64EE-48EC-89DD-9A50891C3E8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2374,4 +2588,12 @@
     <ds:schemaRef ds:uri="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767BCD5D-D9CA-4F41-921C-9506A605E799}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/codelist_generator/codelijst.xlsx
+++ b/codelist_generator/codelijst.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\5. water\DigitaleWatermeter\OSLOthema-DigitaleWatermeter\codelist_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A7166E-B372-4761-987B-A449CE6207A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93320284-275D-40E6-A393-D229B8B81560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="10" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
   </bookViews>
@@ -22,8 +22,8 @@
     <sheet name="Identificatortype" sheetId="24" r:id="rId7"/>
     <sheet name="Observatieproceduretype meting" sheetId="13" r:id="rId8"/>
     <sheet name="Observatieproceduretype schatti" sheetId="22" r:id="rId9"/>
-    <sheet name="SysteemType Watermeter" sheetId="14" r:id="rId10"/>
-    <sheet name="MeterType" sheetId="25" r:id="rId11"/>
+    <sheet name="Sensortype Watermeter" sheetId="14" r:id="rId10"/>
+    <sheet name="Metertype" sheetId="25" r:id="rId11"/>
     <sheet name="SysteemType MLModel" sheetId="23" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="126">
   <si>
     <t>Klasse</t>
   </si>
@@ -403,19 +403,28 @@
     <t>Voorbeeld type digitale watermeter.</t>
   </si>
   <si>
-    <t>DWM_MeterType</t>
-  </si>
-  <si>
-    <t>MeterType</t>
-  </si>
-  <si>
-    <t>Codelijst van MeterType</t>
-  </si>
-  <si>
     <t>watermeter</t>
   </si>
   <si>
     <t>Meetinstrument dat wordt gebruikt om het volume van het waterverbruik nauwkeurig te registreren.</t>
+  </si>
+  <si>
+    <t>DWM_Sensortype</t>
+  </si>
+  <si>
+    <t>Codelijst van Sensortype</t>
+  </si>
+  <si>
+    <t>Sensortype</t>
+  </si>
+  <si>
+    <t>DWM_Metertype</t>
+  </si>
+  <si>
+    <t>Codelijst van Metertype</t>
+  </si>
+  <si>
+    <t>Metertype</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1040,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -1061,14 +1070,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1107,7 +1116,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -1137,14 +1146,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1152,16 +1161,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -1538,7 +1547,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f t="shared" ref="A4:C16" si="0">LOWER(D4)</f>
+        <f t="shared" ref="C4:C16" si="0">LOWER(D4)</f>
         <v>arrondissement</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2286,6 +2295,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fe43d49-4f67-4486-9d33-01c03a937144">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035E8B7C1683A094088FCB07793D87522" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="defcde9e440f4149fdb82984df360603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fe43d49-4f67-4486-9d33-01c03a937144" xmlns:ns3="8048baa3-acbd-4148-aa9c-23a40fe33dd6" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45ba6c74a34166c5914c1b8baace4f4d" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="1fe43d49-4f67-4486-9d33-01c03a937144"/>
@@ -2539,27 +2568,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fe43d49-4f67-4486-9d33-01c03a937144">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767BCD5D-D9CA-4F41-921C-9506A605E799}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9183F7A-64EE-48EC-89DD-9A50891C3E8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1fe43d49-4f67-4486-9d33-01c03a937144"/>
+    <ds:schemaRef ds:uri="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11525170-3E77-43E2-A139-01169EE911D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2577,23 +2605,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9183F7A-64EE-48EC-89DD-9A50891C3E8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1fe43d49-4f67-4486-9d33-01c03a937144"/>
-    <ds:schemaRef ds:uri="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767BCD5D-D9CA-4F41-921C-9506A605E799}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>